--- a/500all/speech_level/speeches_CHRG-114hhrg20750.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20750.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
   <si>
     <t>committee_name</t>
   </si>
@@ -50,9 +50,6 @@
   </si>
   <si>
     <t>400380</t>
-  </si>
-  <si>
-    <t>Christopher H. Smith</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Smith. The subcommittee will come to order and, pursuant to notice, we are here this afternoon to mark up an amendment in the nature of a substitute to H. Res. 290 calling for the global repeal of blasphemy laws.    Let me point out that the underlying resolution introduced by Congressman Joe Pitts and Sheila Jackson Lee is also co-sponsored by Mr. Cicilline, Mr. Donovan, Mr. Meadows, and myself.    Due to the strong bipartisan support for this measure, the fact that this subcommittee will reconvene following the markup for our hearing, as well as for scheduling other events, it is the intent of the Chairman to expedite consideration of the measure.    All members have copies of the amendment in the nature of a substitute to H. Res. 290 before them.</t>
@@ -457,11 +454,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -483,11 +478,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg20750.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20750.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -50,6 +53,12 @@
   </si>
   <si>
     <t>400380</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Christopher</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Smith. The subcommittee will come to order and, pursuant to notice, we are here this afternoon to mark up an amendment in the nature of a substitute to H. Res. 290 calling for the global repeal of blasphemy laws.    Let me point out that the underlying resolution introduced by Congressman Joe Pitts and Sheila Jackson Lee is also co-sponsored by Mr. Cicilline, Mr. Donovan, Mr. Meadows, and myself.    Due to the strong bipartisan support for this measure, the fact that this subcommittee will reconvene following the markup for our hearing, as well as for scheduling other events, it is the intent of the Chairman to expedite consideration of the measure.    All members have copies of the amendment in the nature of a substitute to H. Res. 290 before them.</t>
@@ -404,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -412,7 +421,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -434,53 +443,66 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg20750.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20750.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -53,6 +56,9 @@
   </si>
   <si>
     <t>400380</t>
+  </si>
+  <si>
+    <t>Chair</t>
   </si>
   <si>
     <t>Smith</t>
@@ -413,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -421,7 +427,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -446,63 +452,72 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
         <v>16</v>
+      </c>
+      <c r="J3" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
